--- a/docs/shr-core-ProcedureRequest.xlsx
+++ b/docs/shr-core-ProcedureRequest.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$53</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1870" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="284">
   <si>
     <t>Path</t>
   </si>
@@ -485,16 +485,6 @@
     <t>What type of party should carry out the testing.</t>
   </si>
   <si>
-    <t>reasonreference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReasonReference-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>The justification, as reference to a condition or observation.</t>
-  </si>
-  <si>
     <t>communicationmethod</t>
   </si>
   <si>
@@ -654,7 +644,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/BodySiteVS</t>
+    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/BodyLocationVS</t>
   </si>
   <si>
     <t>Procedure.targetBodySite</t>
@@ -669,64 +659,24 @@
     <t>ProcedureRequest.bodySite.extension</t>
   </si>
   <si>
-    <t>laterality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Laterality-extension]]} {[]}
+    <t>locationqualifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-LocationQualifier-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Anatomical location or specimen further detailing the side(s) of interest.</t>
-  </si>
-  <si>
-    <t>anatomicaldirection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-AnatomicalDirection-extension]]} {[]}
+    <t>Additional information, such as laterality or direction, that helps define the body location.</t>
+  </si>
+  <si>
+    <t>landmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Landmark-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Anatomical location or specimen further detailing directionality.</t>
-  </si>
-  <si>
-    <t>clockdirection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ClockDirection-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>A direction indicated by an angle relative to 12 o'clock.</t>
-  </si>
-  <si>
-    <t>commentordescription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-CommentOrDescription-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>A text note containing additional details, explanation, description, comment, or summarization.</t>
-  </si>
-  <si>
-    <t>attachment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Attachment-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>A file that contains audio, video, image, or similar content.</t>
-  </si>
-  <si>
-    <t>distancefromlandmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-DistanceFromLandmark-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>How far the anatomical location of interest is from the given landmark</t>
+    <t>An anatomical landmark that helps determine a body location.</t>
   </si>
   <si>
     <t>ProcedureRequest.bodySite.coding</t>
@@ -765,7 +715,11 @@
     <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
-    <t>ProcedureRequest.reasonCodeableConcept</t>
+    <t>ProcedureRequest.reason[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept {[]} {[]}
+Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Condition]]}</t>
   </si>
   <si>
     <t>Why procedure should occur</t>
@@ -1098,7 +1052,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM58"/>
+  <dimension ref="A1:AM53"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1131,7 +1085,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="122.19921875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.23046875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.3515625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
@@ -3464,7 +3418,7 @@
         <v>40</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>39</v>
@@ -3663,11 +3617,9 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
         <v>39</v>
       </c>
@@ -3688,11 +3640,13 @@
         <v>39</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="K25" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>57</v>
+      </c>
       <c r="L25" t="s" s="2">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3743,13 +3697,13 @@
         <v>39</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>39</v>
@@ -3764,12 +3718,12 @@
         <v>39</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>39</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3780,7 +3734,7 @@
         <v>40</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>39</v>
@@ -3792,13 +3746,13 @@
         <v>39</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3849,13 +3803,13 @@
         <v>39</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>39</v>
@@ -3870,12 +3824,12 @@
         <v>39</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>120</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3883,10 +3837,10 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>39</v>
@@ -3898,13 +3852,13 @@
         <v>39</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3913,7 +3867,7 @@
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>39</v>
@@ -3955,13 +3909,13 @@
         <v>39</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>39</v>
@@ -3976,12 +3930,12 @@
         <v>39</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>39</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4004,13 +3958,13 @@
         <v>39</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4019,7 +3973,7 @@
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>39</v>
@@ -4061,10 +4015,10 @@
         <v>39</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>47</v>
@@ -4087,15 +4041,17 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="C29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>47</v>
@@ -4110,11 +4066,9 @@
         <v>39</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="K29" t="s" s="2">
         <v>162</v>
       </c>
+      <c r="K29" s="2"/>
       <c r="L29" t="s" s="2">
         <v>163</v>
       </c>
@@ -4167,13 +4121,13 @@
         <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>39</v>
@@ -4188,7 +4142,7 @@
         <v>39</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>120</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" hidden="true">
@@ -4511,38 +4465,40 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="B33" t="s" s="2">
         <v>173</v>
       </c>
+      <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="K33" s="2"/>
       <c r="L33" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="M33" s="2"/>
+      <c r="M33" t="s" s="2">
+        <v>65</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>39</v>
@@ -4590,15 +4546,11 @@
       <c r="AD33" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE33" t="s" s="2">
-        <v>121</v>
-      </c>
+      <c r="AE33" s="2"/>
       <c r="AF33" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG33" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG33" s="2"/>
       <c r="AH33" t="s" s="2">
         <v>39</v>
       </c>
@@ -4612,7 +4564,7 @@
         <v>39</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>39</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" hidden="true">
@@ -4621,7 +4573,7 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -4634,23 +4586,21 @@
         <v>39</v>
       </c>
       <c r="H34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="I34" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="J34" t="s" s="2">
-        <v>62</v>
+        <v>177</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>65</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>39</v>
@@ -4710,18 +4660,18 @@
         <v>39</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>39</v>
+        <v>181</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>120</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4729,10 +4679,10 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>39</v>
@@ -4744,13 +4694,13 @@
         <v>42</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4800,11 +4750,15 @@
       <c r="AD35" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE35" s="2"/>
+      <c r="AE35" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="AF35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG35" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>47</v>
+      </c>
       <c r="AH35" t="s" s="2">
         <v>39</v>
       </c>
@@ -4812,10 +4766,10 @@
         <v>39</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>39</v>
@@ -4823,7 +4777,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4846,13 +4800,13 @@
         <v>42</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4879,13 +4833,11 @@
         <v>39</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="X36" s="2"/>
       <c r="Y36" t="s" s="2">
-        <v>39</v>
+        <v>191</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>39</v>
@@ -4902,15 +4854,11 @@
       <c r="AD36" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE36" t="s" s="2">
-        <v>185</v>
-      </c>
+      <c r="AE36" s="2"/>
       <c r="AF36" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>47</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AG36" s="2"/>
       <c r="AH36" t="s" s="2">
         <v>39</v>
       </c>
@@ -4918,10 +4866,10 @@
         <v>39</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>39</v>
@@ -4929,7 +4877,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4937,10 +4885,10 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>39</v>
@@ -4955,13 +4903,17 @@
         <v>142</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>39</v>
       </c>
@@ -4985,11 +4937,11 @@
         <v>39</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>85</v>
+        <v>199</v>
       </c>
       <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>39</v>
@@ -5018,18 +4970,18 @@
         <v>39</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>195</v>
+        <v>39</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>39</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5040,7 +4992,7 @@
         <v>40</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>39</v>
@@ -5049,23 +5001,19 @@
         <v>39</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>142</v>
+        <v>48</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>198</v>
+        <v>57</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>39</v>
       </c>
@@ -5089,11 +5037,13 @@
         <v>39</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="X38" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="Y38" t="s" s="2">
-        <v>203</v>
+        <v>39</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>39</v>
@@ -5125,26 +5075,26 @@
         <v>39</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>204</v>
+        <v>39</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>205</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>39</v>
@@ -5156,15 +5106,17 @@
         <v>39</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>65</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>39</v>
@@ -5201,16 +5153,14 @@
         <v>39</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="AB39" s="2"/>
       <c r="AC39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="AE39" s="2"/>
       <c r="AF39" t="s" s="2">
@@ -5235,11 +5185,13 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="B40" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="C40" t="s" s="2">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5258,17 +5210,13 @@
         <v>39</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>63</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="K40" s="2"/>
       <c r="L40" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>65</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>39</v>
@@ -5305,20 +5253,26 @@
         <v>39</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AB40" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="AC40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AE40" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG40" s="2"/>
+      <c r="AG40" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH40" t="s" s="2">
         <v>39</v>
       </c>
@@ -5332,12 +5286,12 @@
         <v>39</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>59</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>208</v>
@@ -5417,7 +5371,7 @@
         <v>39</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
@@ -5443,11 +5397,9 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="B42" t="s" s="2">
         <v>211</v>
       </c>
+      <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
         <v>39</v>
       </c>
@@ -5465,17 +5417,23 @@
         <v>39</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="K42" s="2"/>
       <c r="L42" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+      <c r="M42" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>39</v>
       </c>
@@ -5522,15 +5480,11 @@
       <c r="AD42" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE42" t="s" s="2">
-        <v>207</v>
-      </c>
+      <c r="AE42" s="2"/>
       <c r="AF42" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG42" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG42" s="2"/>
       <c r="AH42" t="s" s="2">
         <v>39</v>
       </c>
@@ -5544,16 +5498,14 @@
         <v>39</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>39</v>
+        <v>216</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
         <v>39</v>
       </c>
@@ -5562,7 +5514,7 @@
         <v>40</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>39</v>
@@ -5571,17 +5523,23 @@
         <v>39</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="K43" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="L43" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>39</v>
       </c>
@@ -5628,15 +5586,11 @@
       <c r="AD43" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE43" t="s" s="2">
-        <v>207</v>
-      </c>
+      <c r="AE43" s="2"/>
       <c r="AF43" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG43" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG43" s="2"/>
       <c r="AH43" t="s" s="2">
         <v>39</v>
       </c>
@@ -5650,16 +5604,14 @@
         <v>39</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>39</v>
+        <v>222</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
         <v>39</v>
       </c>
@@ -5668,7 +5620,7 @@
         <v>40</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>39</v>
@@ -5677,14 +5629,16 @@
         <v>39</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="K44" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="L44" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5711,13 +5665,13 @@
         <v>39</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>39</v>
+        <v>227</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>39</v>
+        <v>228</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>39</v>
@@ -5734,15 +5688,11 @@
       <c r="AD44" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE44" t="s" s="2">
-        <v>207</v>
-      </c>
+      <c r="AE44" s="2"/>
       <c r="AF44" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG44" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG44" s="2"/>
       <c r="AH44" t="s" s="2">
         <v>39</v>
       </c>
@@ -5753,7 +5703,7 @@
         <v>39</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>39</v>
+        <v>229</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>39</v>
@@ -5761,11 +5711,9 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
         <v>39</v>
       </c>
@@ -5774,7 +5722,7 @@
         <v>40</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>39</v>
@@ -5783,14 +5731,16 @@
         <v>39</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="K45" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="L45" t="s" s="2">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -5840,15 +5790,11 @@
       <c r="AD45" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE45" t="s" s="2">
-        <v>207</v>
-      </c>
+      <c r="AE45" s="2"/>
       <c r="AF45" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG45" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG45" s="2"/>
       <c r="AH45" t="s" s="2">
         <v>39</v>
       </c>
@@ -5856,10 +5802,10 @@
         <v>39</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>39</v>
+        <v>234</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>39</v>
+        <v>235</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>39</v>
@@ -5867,11 +5813,9 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
         <v>39</v>
       </c>
@@ -5880,7 +5824,7 @@
         <v>40</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>39</v>
@@ -5889,14 +5833,16 @@
         <v>39</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="K46" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="L46" t="s" s="2">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -5946,15 +5892,11 @@
       <c r="AD46" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE46" t="s" s="2">
-        <v>207</v>
-      </c>
+      <c r="AE46" s="2"/>
       <c r="AF46" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG46" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG46" s="2"/>
       <c r="AH46" t="s" s="2">
         <v>39</v>
       </c>
@@ -5962,10 +5904,10 @@
         <v>39</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>39</v>
+        <v>240</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>39</v>
+        <v>241</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>39</v>
@@ -5973,7 +5915,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -5984,7 +5926,7 @@
         <v>40</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>39</v>
@@ -5996,20 +5938,16 @@
         <v>42</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>81</v>
+        <v>243</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>39</v>
       </c>
@@ -6068,18 +6006,18 @@
         <v>39</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>39</v>
+        <v>246</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>231</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6087,7 +6025,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>47</v>
@@ -6096,26 +6034,22 @@
         <v>39</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>39</v>
       </c>
@@ -6139,13 +6073,13 @@
         <v>39</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>39</v>
+        <v>250</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>39</v>
+        <v>251</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>39</v>
@@ -6162,11 +6096,15 @@
       <c r="AD48" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE48" s="2"/>
+      <c r="AE48" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG48" s="2"/>
+      <c r="AG48" t="s" s="2">
+        <v>47</v>
+      </c>
       <c r="AH48" t="s" s="2">
         <v>39</v>
       </c>
@@ -6174,18 +6112,18 @@
         <v>39</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>39</v>
+        <v>252</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>39</v>
+        <v>253</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>237</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6196,7 +6134,7 @@
         <v>40</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>39</v>
@@ -6208,13 +6146,13 @@
         <v>42</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>142</v>
+        <v>255</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6241,13 +6179,13 @@
         <v>39</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>241</v>
+        <v>39</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>242</v>
+        <v>39</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>39</v>
@@ -6279,7 +6217,7 @@
         <v>39</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>39</v>
@@ -6287,7 +6225,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6310,13 +6248,13 @@
         <v>42</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6343,10 +6281,10 @@
         <v>39</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>39</v>
+        <v>263</v>
       </c>
       <c r="Y50" t="s" s="2">
         <v>39</v>
@@ -6378,10 +6316,10 @@
         <v>39</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>248</v>
+        <v>39</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>39</v>
@@ -6389,7 +6327,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6412,13 +6350,13 @@
         <v>42</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6480,10 +6418,10 @@
         <v>39</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>39</v>
@@ -6491,7 +6429,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6514,13 +6452,13 @@
         <v>42</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6582,10 +6520,10 @@
         <v>39</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>39</v>
+        <v>276</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>39</v>
@@ -6593,7 +6531,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6601,7 +6539,7 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>47</v>
@@ -6610,7 +6548,7 @@
         <v>39</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>42</v>
@@ -6619,10 +6557,10 @@
         <v>99</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -6652,10 +6590,10 @@
         <v>103</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>39</v>
@@ -6672,15 +6610,11 @@
       <c r="AD53" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE53" t="s" s="2">
-        <v>261</v>
-      </c>
+      <c r="AE53" s="2"/>
       <c r="AF53" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG53" t="s" s="2">
-        <v>47</v>
-      </c>
+      <c r="AG53" s="2"/>
       <c r="AH53" t="s" s="2">
         <v>39</v>
       </c>
@@ -6688,527 +6622,17 @@
         <v>39</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="54" hidden="true">
-      <c r="A54" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE54" s="2"/>
-      <c r="AF54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG54" s="2"/>
-      <c r="AH54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="55" hidden="true">
-      <c r="A55" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F55" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P55" s="2"/>
-      <c r="Q55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE55" s="2"/>
-      <c r="AF55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG55" s="2"/>
-      <c r="AH55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="56" hidden="true">
-      <c r="A56" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F56" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE56" s="2"/>
-      <c r="AF56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG56" s="2"/>
-      <c r="AH56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="57" hidden="true">
-      <c r="A57" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F57" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE57" s="2"/>
-      <c r="AF57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG57" s="2"/>
-      <c r="AH57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="58" hidden="true">
-      <c r="A58" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F58" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE58" s="2"/>
-      <c r="AF58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG58" s="2"/>
-      <c r="AH58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AL58" t="s" s="2">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL58">
+  <autoFilter ref="A1:AL53">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7218,7 +6642,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI57">
+  <conditionalFormatting sqref="A2:AI52">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
